--- a/500all/speech_level/speeches_CHRG-114hhrg97262.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97262.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400154</t>
   </si>
   <si>
-    <t>Bob Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Good morning. The Judiciary Committee will come to order. And without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone to this morning's hearing on the oversight of the Federal Bureau of Investigation, and I will begin by recognizing myself for an opening statement.    Welcome, Director Comey, to your second appearance before the House Judiciary Committee since your confirmation as the seventh Director of the Federal Bureau of Investigation. We are happy to have you here with us today. I once again commend your distinguished service to our Nation, and I'm confident you will continue to serve honorably at the helm of the FBI.    Today, the FBI continues to face the effects of one of the worst national security leaks in our Nation's history by Edward Snowden 2 years ago. Over the past year, the House Judiciary Committee spearheaded the passage of the USA FREEDOM Act, a bipartisan law that ended a controversial national security program and provided expanded oversight and transparency of America's intelligence gathering. The USA FREEDOM Act ensures that Federal law appropriately respects civil liberties while providing the necessary tools to preserve our collection capabilities and thereby meet our national security responsibilities.    I want to again thank Director Comey and the men and women of the FBI for working closely with Members of this Committee to ensure passage and enactment of the USA FREEDOM Act.    Events over the past year in the Middle East have deeply violated the world's moral compass with scenes of unimaginable brutality at the hands of ISIS. In particular, the appalling and indiscriminate targeting of anyone who fails to abide by ISIS' stated goal to establish a global caliphate has resulted in the shedding of innocent blood by the most revolting methods.    As a radical Islamic terrorist organization, ISIS mandates conformity to an ideology which permits no dissent. As Americans with a strong history of protecting religious liberty, we stand in total opposition to ISIS' decimation of Christian populations in the Middle East and to its vicious tactics.    America is not immune to ISIS' propaganda of terror. American teenagers have been radicalized in part by ISIS' concerted social media efforts promoting the killing of fellow Americans, and just last week a like-minded cyber hacker was indicted for providing ISIS with information on U.S. service members.    Director Comey, you are at the forefront of protecting our country from those who patiently plot to do us harm, and I am interested today in hearing more about the FBI's efforts to combat ISIS.    Over 3 years ago, our diplomatic mission to Benghazi, Libya, was attacked by terrorists and four Americans, including our Ambassador, were killed. As of today, only one subject has been apprehended and placed on trial. I am interested in hearing more from you about the status of the FBI's investigation and efforts to bring to justice other terrorist killers who murdered four of our citizens.    Separately, it was revealed this past year that former Secretary of State Hillary Clinton used a private e-mail server to conduct her official business while serving as Secretary of State. Two inspectors general have already reported that classified information was contained within Secretary Clinton's private e-mail and have referred the matter to the Justice Department.    While the apparent lack of transparency related to the use of a private server to conduct the Nation's diplomatic business is troubling, it also raises significant questions concerning the security of national secrets and the potential insight that such a home-brew setup may afford a foreign intelligence service into the day-to-day digital record of a top-level government official.    On the technology front, the issue known as Going Dark has been at the top of the FBI's concerns in recent years. Encryption technology is exciting and can effectively secure private communications when privacy is needed or desired. In fact, over 15 years ago, I led congressional efforts to ensure strong encryption technology and to ensure that the government could not automatically demand a backdoor key to encryption technologies.    This enabled the U.S. encryption market to thrive and produce legitimate encryption technologies for legitimate actors rather than see the market head completely overseas to companies that do not have to comply with basic protections. However, it is true that this technology can also be used by those who wish to do us harm. Adoption of new communications technologies by those intending to harm the American people is outpacing law enforcement's technological capability to access those communications in legitimate criminal and terrorist investigations.    In light of the Administration's recent announcement that it is not currently seeking a legislative solution to its Going Dark challenges, I am interested to hear your perspective on whether the Administration's newly announced approach to work in an ad hoc fashion with communication providers is an adequate solution.    Finally, violent crime appears to be on the rise across the country, particularly around our major metropolitan centers. It is disconcerting to watch the gains of the past decades unravel in an explosion of community violence. We have also witnessed several incidents in the past year that, unfortunately, have led to increased community tension with law enforcement. This tension will hopefully be resolved through improved communication, accountability, policing practices, and various other initiatives.    I hope to hear the FBI's perspectives on the reasons for the increase in crime and how to ensure that law enforcement officers and the citizens they serve can coexist in a safe and respectful environment.    In conclusion, Mr. Director, please know that this Committee sincerely appreciates your efforts to keep us safe and the heroic actions consistently performed by the men and women of the FBI to protect our country. I look forward to hearing your answers on all of these important topics today, as well as on our other issues of significance to the FBI and our Nation.    At this time, I am pleased to recognize the Ranking Member of the Committee, the gentleman from Michigan, Mr. Conyers, for his opening statement.</t>
   </si>
   <si>
     <t>400080</t>
   </si>
   <si>
-    <t>John Conyers, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Goodlatte.    Good morning, Director Comey. We welcome you for this second appearance before the House Judiciary Committee since taking office on September the 4th, 2013.    The FBI's mission is a complex undertaking to protect the United States from terrorism, to enforce our criminal laws, and to lead the Nation's law enforcement community. And yet, as vast as this mission seems, I think nearly all of the discussion we will have here today can be distilled into one word: Trust. Trust in the executive branch to respect and secure our privacy and our civil liberties. Trust in the FBI as an institution. Trust in State and local agencies that police our communities.    In many respects, Director Comey, I think we agree on this point. For example, you have spoken powerfully about the hard truths we must keep in mind when we discuss race and policing, and particularly when we discuss the use of force by police officers. I am told that you require all new agencies to study the FBI's interaction with Dr. Martin Luther King, Jr., and to visit his memorial at the Tidal Basin. I'm also advised that you keep on your desk a copy of Robert Kennedy's approval of J. Edgar Hoover's request to place a wiretap on Dr. King.    These are powerful reminders of a troubling and not-too-distant history. It's not difficult to draw a line from that era to recent events in Ferguson, Baltimore, New York, and Cleveland. And that's why your work to build trust between police and our communities is so important.    Nowhere is that effort more apparent than in your call for better data on the use of force by police. Although the FBI is the national custodian of crime statistics, that data is reported voluntarily and inconsistently. You have been honest in your assessment that official statistics in this area are so incomplete as to be embarrassing and ridiculous.    We need a better understanding of what drives police use of force, and we cannot study the problem without reliable data. I urge you to continue to press your State and local partners for consistent and accurate reporting to the National Incident-Based Reporting System.    Just as we must rebuild trust in certain State and local law enforcement units, we will look to your testimony today to reassure us about a number of programs and activities at the FBI. Earlier this year, the public noticed a small plane flying in a tight pattern directly over the site of unrest in west Baltimore. Other reports from other parts of the country, including my own district in Detroit, raise questions about the presence of similar aircraft.    The FBI has since confirmed the existence of its aerial surveillance program. On June 3, 15 Members of this Committee wrote you to ask for more information about this program. Your team provided our staff with a briefing soon thereafter. But the public still has many questions about aerial surveillance, and you have said that there is a great deal of misinformation about this program. I would like you to use your testimony and presence here today to explain from your perspective how this program works and why we should trust the Bureau to operate it.    Similarly, I think we would benefit from a fuller description of encryption and what you've called the Going Dark problem. Over the past year, you have called for a congressional mandate to give the FBI special access to otherwise encrypted data.    I have a difficult time understanding this proposal. Every technical expert who has spoken on this issue has concluded that it is technically impossible to provide this access without also compromising our security against bad actors. Even if it were technically feasible, it would cost our technology sector perhaps billions of dollars to implement the scheme and perhaps billions more from loss of business overseas where the United States Government surveillance programs have already taken a toll on the industry.    And even if it were technically feasible and easy to implement, a new rule for United States companies would not succeed in keeping bad actors from using unbreakable encryption, which is open source, free, and widely available from companies based overseas.    As Chairman Goodlatte argued when we had this debate in 1999, only by allowing the use of strong encryption, not only domestically but internationally as well, can we hope to make the Internet a safe and secure environment. I agree with that sentiment, and you have made similar public statements, and I hope that you can help us to reconcile that view with your call for special access.    And finally, because rigorous oversight is necessary for public trust, I hope that you will commit today to full compliance with the Inspector General Act. For the past 5 years, the FBI has resisted the clear mandate of that law. The inspector general of the Department of Justice is to have timely access to every document he requires to carry out his duties.    Noncompliance has real consequences. This Committee waited until February of this year to receive a report about the FBI's use of Section 215 orders from 2007 to 2009. The public waited until May for the unclassified version. In the middle of a national debate on government surveillance, we waited 6 years for critical information. This delay is unacceptable.    I understand that there are other interpretations of the law. Congress will soon clarify the matter, likely in overwhelmingly bipartisan fashion. But in the meantime, Director Comey, I hope that the Bureau will step away from its litigating position and give the Office of the Inspector General the access it requires and deserves.    Your job is a complex and demanding one, Director. We appreciate you being here today, and I look forward to your testimony.    And I thank the Chairman and yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Comey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Comey. Thank you, Chairman Goodlatte, Congressman Conyers. It's good to be back before you and the Members of the Committee for my second annual oversight hearing. I expect to be back for eight more during my 10-year term, which I look forward to very much.    What I thought I would do is just explain to the Committee in very short form how we at the FBI think about ourselves and a couple of the things that are prominent in our work today. I think the FBI can best be described in a single sentence: We are a national security and law enforcement organization that uses, collects, and shares intelligence in everything that we do.    That sentence captures us in two different ways. First, the first half of that sentence, we are a national security and law enforcement organization. There is great strength to the American people in having our criminal responsibilities and our national security responsibilities in the same place.    Perhaps no better example is there of the strength that's gained from that combination than the rule of law as the spine of the FBI. It is a great thing, I think, for this country that the people responsible for counterintelligence, counterterrorism, and the criminal work all have as part of their being the rule of law and the Bill of Rights.    The second half of that sentence, we use, collect, and share intelligence in everything that we do, is a description of what I think we have always been but what we have tried to get so much better at since 9/11. That is being thoughtful about what we know, what we need to know, and who needs to know what we know so that we can all be more effective in protecting this country.    I want to touch on two topics under our responsibilities. Start with national security. The threat posed to us from ISIL's crowdsourcing of terrorism using social media is a significant feature of our work. It was an especially taxing threat the FBI dealt with earlier this summer when all over the country, in hundreds of investigations, we were trying to evaluate where people are from consuming ISIL's poison to acting on it.    Through the Internet, the so-called Islamic State has been pushing a twin-pronged message to troubled souls all over the world and all over our country. The first prong is come to the so-called caliphate and live a life of glory; and if you can't come, the second prong says, kill. Kill where you are. Kill anyone. If you can kill people in uniform, military or law enforcement, best of all.    That message has gone out since the summer of 2014 aggressively and in a very sophisticated way to thousands of consumers on Twitter. And Twitter works to sell books or movies or magazines. It works to crowdsource terrorism. And so in every State we have investigations trying to understand where people are on the path from consuming to acting.    And this is a very different paradigm than the traditional Al Qaeda paradigm because this is not about national landmarks and sophisticated, long-tail, carefully surveilled events. This is about trying to motivate murder anywhere, by anyone. And, unfortunately, it's a message that resonates with troubled souls seeking meaning.    And so earlier this summer, especially in May, June, and July, we were faced with the prospect of a whole lot of people acting out on this inspiration or direction from ISIL, and thanks to great work by the men and women of the FBI and our partners in State, local, and Federal law enforcement, we disrupted a whole lot of efforts to murder innocent people in the United States.    That work, though, continues, and it is made particularly difficult by an issue both you and Mr. Conyers touched upon. Our mission is to find needles in a nationwide haystack, and we have hundreds of investigations aimed at doing that in all 50 States. But increasingly what ISIL does is move the real live ones who might be willing to kill on their behalf off of Twitter to a mobile messaging app that is end-to-end encrypted. And at that moment, the needle that we may have found becomes invisible to us even with court orders, which is how the FBI does its business.    And so that's the challenge we face called Going Dark in real living color. We are trying to interdict, trying to stop, trying to understand people on the cusp of acts of violence, and increasingly a tool that the American people count on us to use is less and less effective. I don't know exactly what to do about that, frankly, but I think my job, given the responsibility I have, is to tell people there's a problem and we need to talk about it. And so I look forward to a conversation about it with you.    Our law enforcement responsibilities is the second thing I just want to touch very briefly. Obviously, we do public corruption work. We protect children. We fight fraud. We do a whole lot of work with our partners around the country to address violent crime. Something very disturbing is happening in this country right now in law enforcement and in violent crime.    I imagine two lines, one being us in law enforcement and the other being communities we serve and protect, especially communities of color. Those two lines over the last year or so have been arcing away from each other, and that continues. Each incident that involves police misconduct or perceived misconduct bends one line away. Each time an officer is killed or attacked in the line of duty bends the other line farther away.    And in the midst of those arcing away from each other, maybe because they're arcing away from each other, we are seeing a dramatic spike in violent crime, especially homicide, in cities all across the country. In communities of color especially, especially young men are dying at a rate that dwarfs what we've seen in recent history. It's happening all over the country, and it's happening all in the last 10 months.    And so a lot of us in law enforcement are talking and trying to understand what is happening in this country, what explains the map we see, what explains the calendar. Why is it happening all over the country? Why is it happening this year?    I don't know the answer to that. I, as I said, like a lot of people in law enforcement, are struggling with it. We simply must focus on this because all lives matter. This is not a problem America should drive around. We should stare at it. And as we stare at it, we should all work for ways to bend those lines back toward each other, because we need each other. We need each other to make sure our communities are safe. We have achieved in 2014 historically low violent crime in this country. We cannot let that slip away from us.    I am grateful for the hard work of the men and women of the FBI on these challenges. I am especially grateful for our partners in law enforcement around the country who help us address those. As you know, the FBI doesn't have a lot of fancy stuff. We have people, and we have great people, thank goodness, who are Americans who care deeply about protecting all their fellow citizens. I am honored to be in this job where I get to watch what they do and help them. And I look forward to your questions.</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you.    Director Comey, thank you, not just for being here, but for your service. I also want to thank all of your staff. I know the dedication they put into serving this country, and we appreciate them being here.    If my friend Steve Chabot were here, he would also commend you for your selection of William and Mary as an undergraduate. And I will tell you that if we couldn't convince you to go to the University of Virginia Law School, Chicago was probably a good second choice.    But I have a question. As I listened to the Ranking Member today talk about trust, and he talked about the symbols that you have on your desk regarding police brutality and efforts by law enforcement, but you mentioned it was important to have reality and perception, both of those, when you're looking to that trust.    Tell me the symbols if you would, because what he raised was important, but tell me the symbols on your desk or in your office that would give me comfort in knowing that there was also a perception that you were equally looking at organized groups that were coming into areas like Ferguson and Baltimore to foment unrest, especially groups that were outside those communities and especially those groups who might be impacting violence against law enforcement. Because as you mentioned, there are two curves, not just one curve.</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    And thank you, Director Comey, for being here again.    The National Instant Background Check System was created as a result of the Brady Act of 1993, before I was in the Congress, and it requires that gun sales by licensed gun dealers are subject to background checks but allows transactions to proceed after 3 days unless the FBI stops the transaction based on criteria such as felony record or domestic violence, misdemeanor convictions, and the like.    Now, under the rule, even if the FBI has not completed its check, the dealer has the discretion to complete the sale after 3 days have passed and they haven't received a red light from the FBI.    Now, it's my understanding from news reports that the man who shot and killed nine people at the Emanuel African Methodist Episcopal Church in Charleston, South Carolina, on June 17 was sold the gun by a dealer who waited 5 days but did not receive a response from the NICS examiner. Now, the shooter had a drug possession conviction that, if it had been found by the NICS examiner, would have prevented the gun sale. Due in part to an error in the shooter's arrest records and also the large caseload and time constraints placed on the NICS examiner, the gun dealer didn't receive the red light that would have prevented this gun sale and possibly prevented this massacre.    So I have a couple of questions. First, what can be done to make sure that we have a timely response and we have the data available to prevent the sale of guns to those who are not eligible to buy them, number one? Number two, should the law require a green light from the FBI to prevent a firearms transfer to those prohibited by law from buying them instead of the red light system that we have now? And do you think that we should examine the amount of time that we give for background checks beyond 3 days if we don't go to an affirmative green light system?</t>
   </si>
   <si>
@@ -238,9 +223,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman.    I've got so many questions and so little time, so I will try to touch on each of them, and bear with me. On Stingrays I'm going to ask you to tell us now or for the record how you control the access to these products when they're not being used, how you control them when they are being used, not just at the FBI, but to the extent that you're cooperating with non-Federal agencies around the country that have these devices.    And specifically I'm very concerned that since they're being used at times without warrant, almost mostly, and there are at least some allegations they've been used to track policemen's girlfriends' or wives' activities and so on, that they are too powerful a tool not to have a series of controls. And I'd like to--again, some of this you can answer for the record--I think on that I'd like to have a full understanding of Federal policy and controls.    In the case of encryption, I'm only going to ask you, it will be a long answer, provide for the record, any and all studies you have to show the value of encryption and the value of your access or ability to not go dark. And if it's classified, I'll look at it in a classified session, but I'd like to fully understand the value and the studies related to that general direction of the Administration.    But I'd like to take up for today more a question on some historic pieces. A few offices away they're dealing with Secretary Clinton, so I won't ask about those today. I think that's certainly an ongoing investigation as to her use of private e-mail for transmitting what turns out to be sensitive information.    But in the case of late 2011, well before your tenure, Solyndra went bankrupt after accepting half a billion dollars in taxpayers' money. At that time we began an investigation in an adjacent Committee, the Oversight Committee, and we were told by the DOE inspector general that he could not talk to us because the FBI at that time had an ongoing investigation.    It's now 4 years later, and the Department, the IG did release information, but we have not received any indication from the FBI. So today I'd like to ask you who at the FBI made decisions not to bring any charges against Solyndra executives and what the basis was to find no fault in that loss of $500 million, and particularly since there was evidence provided publicly by our Committee that there were emergency efforts to get them additional money to try to have their bankruptcy delayed. And that was done by Federal employees, including a gentleman named Jonathan Silver.    You might remember that in May in 2013, the President stood beside the Attorney General and declared that there would be serious investigation by DOJ and FBI into the political targeting done by the IRS. Months later the President declared there wasn't a smidgeon of corruption related to the IRS.    Director, you know that, in fact, there was targeting. The evidence is convincing. Where do you stand on bringing accountability to those involved at all levels to targeting conservatives and pro-Israel groups by the IRS, including but not limited to Lois Lerner?</t>
   </si>
   <si>
@@ -262,9 +244,6 @@
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair.    First, I want to welcome you. I'm a big fan of yours. But at the same time I would like to ask you a question. I understand you keep a copy of the FBI's request to wiretap Dr. Martin Luther King, Jr., on your desk as a reminder of the FBI's capacity to do wrong. Is that correct?</t>
   </si>
   <si>
@@ -316,9 +295,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    Director Comey, thanks for coming to testify, and I just would comment that I appreciate your response. So when you use the reference ``the lens of history,'' there is a different set of values that applies today than applied back in those days. But I'm looking at our values today, and I'm watching as there is a fairly strong push here for sentencing reform in the United States. And I've watched as the President or the Administration, at least, has directed that thousands be released onto the streets before they serve their terms and that we've seen that some of them have been charged with homicide and found guilty of homicide. I think that number is around 121 or so, but I thought I saw the number 36,007 felons released and then a subsequent number.    I'm actually blurred by the parade of releases that we've seen, and now I see it appears to be a group of legislators that believe we can save us some tax dollars by releasing more onto the streets.    Are you aware of any studies that would help us quantify the impact of these releases in terms of either prospective crimes that are likely to be committed or perhaps even quantifying it in terms of the dollar value as that's suffered in great huge whopping chunks by crime victims?</t>
   </si>
   <si>
@@ -394,9 +370,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Director Comey, I want to discuss with you a series of very troubling Federal investigations against Chinese American scientists, who are treated as spies, have their lives turned upside down, only to have all the charges dropped.    Most recently, we have a case of Dr. Xi Xiaoxing, an American citizen and well respected professor who was a chair of the Physics Department at Temple University.    He led a normal and peaceful life as a scientist, professor, and researcher with his two daughters and a wife in a quiet Pennsylvania neighborhood. He had no criminal record, no history of violence, just an average American in academia. But one day, at the break of dawn, about a dozen armed FBI agents stormed into his house with their guns drawn. He was handcuffed in his own home, and his two young daughters and wife in pajamas and directed outside of the house at gunpoint. The stated charge, wire fraud. However, in the interrogation, it was clear he was being accused of being a spy for China.    Since then, his life has been turned upside down. He lost his title as chair of the Physics Department. His reputation was irreparably damaged. His wife endured psychological and emotional trauma, as does his own whole family and himself, of course. And after all of this, the charges against Dr. Xi were dropped.    My understanding of cases of wire fraud is that generally people aren't even handcuffed, let alone arrested or paraded in font of their family or neighborhood as criminals at gunpoint. Rather, they've been given an opportunity to self-surrender, and if someone is being investigated for wire fraud, they are usually informed about such an investigation in a target letter.    But we know that Professor Xi is not alone. Sherry Chen was also recently arrested, a U.S. citizen, an employee of the National Weather Service in Ohio. She was arrested at her place of work, led in handcuffs past her coworkers to a Federal courthouse 40 miles away, where she was told she faced 25 years in prison and a million dollars in fines. Several months later, all the charges were dropped without any explanation.    This is reminiscent, of course, of Dr. Wen Ho Lee another U.S. citizen whose life was ruined when he was accused of being a spy for China, only to have 58 of the 59 charges dropped.    Let's not forget that during World War II, 120,000 Japanese Americans lost everything they had and were imprisoned in desolate camps because they were accused of being spies for Japan. Three-quarters of them were U.S. citizens. Seventy years later, not a single case of espionage was proven. I'm particularly concerned about this because there is a stereotype that Asian Americans are perpetual foreigners, no matter how long they've lived in this country.    So my question to you is, is this common practice to have a dozen armed FBI agents arrest someone for wire fraud, someone who is not a flight risk and poses no harm to law enforcement, or is there a presumption of guilt went it comes to Chinese Americans because they are viewed as spies for China?</t>
   </si>
   <si>
@@ -418,9 +391,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Well, Director Comey, thank you for being here. I don't think I ever told you, but back in July-August timeframe of 2007, I was talking with a powerful Democratic Senator, and we agreed that you had a great reputation for justice, honorable man that would potentially be a good Attorney General. It ended up being Mukasey, but you were discussed very favorably by both sides of the aisle, people unlikely to be talking, but we appreciate your work.    I want to touch on something my friend Steve King brought up. I know there's a lot of talk about how we need to have reform and people being released from prison, but as someone who has worked with the system, you prosecuted, I prosecuted, I've been a judge, I've been court-appointed to defend, and isn't it true that some people that actually plead to nonviolent offenses do so as part of a plea agreement where the prosecutor drops a gun charge or some charge of violence in order to get a plea in the case and a lesser sentence, haven't you seen that happen?</t>
   </si>
   <si>
@@ -460,9 +430,6 @@
     <t xml:space="preserve">    Mr. Goodlatte. The Chair thanks the gentleman and recognizes the gentleman from Illinois, Mr. Gutierrez, for 5 minutes.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you, Mr. Chairman.    And welcome, Director.    I'm just going to ask you to have a conversation about one area, and that's about guns. In my hometown, there could be 40, 50 shootings in a weekend. That's about a whole classroom of kids any weekend. And so I know that you have a relationship with making sure that we check who can and cannot purchase guns here at the FBI. And it just seems that whatever we do in Chicago, guns are just--well, first, our laws have been weakened because there have been challenges to them, so we used to have pretty strong--when I first got elected in 1986 to the Chicago City Council, they give you a badge in Chicago, and you can get a gun. I opted not to take the badge or the gun. I figured the Chicago police could do both of those things, wear the badge and carry the gun for me and for the rest of the people, and I think the people of the city of Chicago were well served by me making that decision.    But, look, so here we have like a majority in the Congress of the United States that's really unwilling to take up the challenge that guns and firearms are--and they're coming from Indiana, and they're coming from Mississippi, and they're coming from all over, and they wind up in Chicago. So I guess, if you could just tell us, what are you ideas on how do I and people at a local level or as a Member of Congress, how do I help curb gun violence? What things can we do to help curb, absent legislation?</t>
   </si>
   <si>
@@ -496,9 +463,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Mr. Director, thank you for being here. I'm going to talk about several subjects, see how many of them I can get in in 5 minutes.    I first want to talk about ECPA, the idea that under current law, that if e-mail is stored in the cloud, government doesn't need a warrant to obtain that e-mail. Is that your understanding of the law?</t>
   </si>
   <si>
@@ -631,9 +595,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Director Comey, in your testimony, you mentioned how ISIL and other terrorist organizations field potential recruits in publicly accessible social networking sites and via encrypted private messaging platforms. Could you detail the issues that law enforcement is facing due to the end of encryption?</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the Chairman, and Director, thank you for being here.    The FBI has had to change through the course of time since my grandfather, who was a career FBI agent, served. I have great admiration for the agency and what you in particular are doing.    I want to go back to cyber, we've talked a lot about cyber. Can you articulate the size, scope, and investment that you in both personnel, dollars to address the cyber threat that's going to continue in perpetuity?</t>
   </si>
   <si>
@@ -727,18 +685,12 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks [presiding]. And I thank the gentleman, and we'll now recognize Mr. Deutch for 5 minutes.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman.    Director Comey, thanks so much for being with us today. I represent south Florida, Broward County and Palm Beach County, and we are experiencing an alpha-PVP, or flakka, epidemic. Broward County is the epicenter of the ongoing national flakka crisis. In Broward, the number of cases is spiraling out of control. The Broward County Sheriff's Office has stated that in January 2014, they analyzed a single flakka case. By September 2014, they were analyzing 80 cases. This year, the sheriff's office has reported analyzing approximately 100 cases per month.    Flakka cases are also flooding the county health system. The Broward health system has reported that they're receiving, on average, 12 cases per day. In this past year, it has contributed to the death of 45 people in Broward County.    Flakka use has also started to spread northward into Palm Beach County. In 2014, there were 35 submissions involving flakka to the Palm Beach Sheriff's Office crime lab. In 2015, there have been 42. There have been 10 arrests in Palm Beach County, and flakka is now moving into Tennessee, Kentucky, Ohio, and other the States.    As you're aware, people using flakka experience hallucinations, delirium, violent outbursts, and extreme body temperatures that often cause the users to remove their clothes. Flakka is extremely cheap. It costs $5. And it can be easily purchased online from China. The low cost of the drug and the easy access are very troubling.    Flakka, as is the case with other synthetic drugs, is extremely difficult for law enforcement to prosecute. The primary problem is that the composition of the synthetic drug can't be pinpointed and classified as illegal because the drugs are constantly changing their composition. And as soon as the synthetic drug is listed as illegal, the composition is changed ever so slightly to evade the listing that made the drug more readily available.    In fact, a recent news report in Miami found that flakka is now being made into gummy bears--gummy bears. The only difference between the real ones and flakka gummy bears is that the ones containing flakka are individually wrapped and stickier. Dealers are using them now to hook young people.    So if you could target the efforts that the FBI has taken to crack down on this epidemic of synthetic drugs, flakka, in particular, and speak to the challenge that you face in cracking down on, again, these sorts of cases involving flakka and other synthetic drugs.</t>
   </si>
   <si>
@@ -763,9 +715,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    Good afternoon. Good morning. It's good to see you.</t>
   </si>
   <si>
@@ -784,9 +733,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    And thank you, Director, for coming and testifying today.    I'd like to talk about the recent operation cross traffic, FBI's nationwide effort to crack down on child sex trafficking. The FBI's October 13 release about the operation states: ``Operation Cross Country, a nationwide law enforcement action that focused on underage victims of prostitution has concluded with the recovery of 149 sexually exploited children and the arrest of more than 150 pimps and other individuals.''    And, first of all, I'd like to commend the agency for correctly referring to the children as sexually exploited children versus prostitutes because a child who is under the age of consent should never be considered a prostitute.    This release refers to other individuals, and I was wondering who those other individuals were. I have a concern that while it's extremely appropriate to focus on the pimps, it's also, in my opinion, very much appropriate to focus on the child molesters who some people would call Johns, but I would like to know if that's who you were referring to, and what is the focus on the child molesters?</t>
   </si>
   <si>
@@ -832,9 +778,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chair.    Mr. Director, it's great to have you here. I have heard from many of my constituents about the refugee program and its impact on Idaho. As refugee admissions are increasing, there is growing concern that bad actors are not being caught in the vetting process and are gaining admission alongside bona fide refugees living in fear.    I'm actually an advocate of refugee programs. I think it's a good thing to have refugee programs, but there's a lot misconceptions out there and a lot of real fear about the people that are coming into the United States. This Congress has an obligation to address those concerns and ensure that the process is working correctly and protecting our national security.    Numerous times over the past year, including yesterday, both the FBI's Assistant Director for the Counterterrorism Division Michael Steinbach and yourself have testified about the flaws and limitations in the vetting of Syrian refugees.    On October 8, you testified that you were concerned about certain gaps in the data available to the FBI, and yesterday you testified that the FBI can only query what has been previously collected, which is obvious.    I know that you have addressed this issue before and you've addressed it, I think, once here today, but can you please explain to this Committee the security gaps that exist for purposes of conducting full and effective background checks on foreign nationals who claim to have fled the conflict zone of Syria and who are seeking to be resettled as refugees in the United States?</t>
   </si>
   <si>
@@ -886,9 +829,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair.    And thank you, Director Comey, for being here and for your service. I know as Acting AG, you demonstrated a commitment to the Fourth Amendment and protecting Americans' privacy, despite enormous pressure to do otherwise, and you mentioned in your original testimony and in other comments that the rule of law and the Fourth Amendment is the spine of the FBI, and so I appreciate that commitment. I'd like to ask you a few questions about the FBI's use of aircraft.    The FBI deployed aircraft over Ferguson last year in response to requests from local law enforcement. Is that correct?</t>
   </si>
   <si>
@@ -958,9 +898,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Good morning, Director Comey.</t>
   </si>
   <si>
@@ -1009,9 +946,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    Thank you, Director Comey, for your service and for coming before the Committee today and for sharing your valuable insights. And thank you also to the extraordinary men and women who serve the Bureau and help keep our country safe, and I think our entire Nation owes them a debt of gratitude.    Many us expressed our sincere concern and condolences following the recent mass shooting in Roseburg, Oregon, where nine innocent men and women lost their lives. Many of us have shared the same sentiments following tragically similar events in Lafayette or Newtown and Blacksburg.    But as more Americans lose their lives to senseless gun violence, this Congress has failed to act. And, Director Comey, with this in mind, I'd like to draw on your experience to help us find solutions to this growing epidemic and to help us find the guts to take necessary action.    And so first I want to just draw your attention to the shooting which occurred at the Emanuel African Methodist Episcopal Church in Charleston, South Carolina. Following the shooting, you ordered the FBI to conduct an internal review of policies and procedures surrounding background checks for weapons purchases. So my first question is, did that review occur, and what were the findings of that review?</t>
   </si>
   <si>
@@ -1039,9 +973,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    Thank you, Director, for being here, and I appreciate it. My father, as well as some of the others, my father was a Georgia State trooper for all his life, 30-plus years. So I appreciate your commitment to law enforcement and being a part.    I do have some quick questions that I wanted to go back on. One has to do with an advisory that was put on October 8 for dealing with credit cards and the chip issue here that was for consumer fraud, stated that new credit cards equipped with the microchip security technology were still vulnerable to identity theft and that the use of PIN authentication in addition to a chip would be a more secure way that consumers' transactions would be more simple, signature verification. However, within 24 hours that advisory was taken down and a few days later issued an advisory that no longer included the PINs.    Now, it's my understanding Canada, Australia, many other countries have encouraged the PIN authorization because it, frankly, has a lower fraud rate.    My question would be is, in light of that, does the FBI consider PIN as a more secure form of authentication over signature verification?</t>
   </si>
   <si>
@@ -1081,9 +1012,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair.    And thank you, Director Comey, for your presence here today and of course your great service to this country.    I think you testified earlier today in your belief as to the efficacy of mandatory minimums. Is that correct?</t>
   </si>
   <si>
@@ -1135,9 +1063,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Good afternoon, Director Comey.    I've noticed--I'm a former prosecutor--companies have begun notifying customers when law enforcement requests data through a subpoena or warrant unless there is a court ordered nondisclosure requirement. And I think particularly for, like, child pornography investigations this may be an issue. Do you think that that that's something that could hamper investigations?</t>
   </si>
   <si>
@@ -1201,9 +1126,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, thank you.    And to Director, thank you so very much. You appeared yesterday in front of the Homeland Security Committee and added a great deal of insight. And so I'd like to not pursue a line of questioning but hope to have an opportunity to meet with you on something we began discussing yesterday, which is cybersecurity and the whole role that it plays as really, I'd almost call it another figure, if you will, another entity in this scheme of terrorism.    I am the Ranking Member of the Subcommittee on Crime, Terrorism, Homeland Security, and Investigations, and with my Ranking Member and Chairman, we are looking to be responsible in addressing, which I believe, issues in the criminal justice system and somewhat overlapping the question of terrorism in this Committee, and certainly in Homeland Security.    Let me just quickly start with a question that I think I introduced in the record yesterday, the No Fly for Foreign Fighters. And we heard testimony that indicated the numbers might be going down, and then I had a number in my notes that there was 250, approximately, Americans who had left to the foreign fight and may be coming back.    The thing that I would say to you is that we must always be prepared. 9/11, the scenario of 9/11 was one that we had never imagined before. We had never imagined an airplane being used as a torpedo. We imagined hijacking. We lived through that. We never imagined. So most time imagination comes with Disney World, but I know that this is a very serious posture.    And so we want to just, hopefully, any extra tool that we can give you with respect to refining and defining the lists that you have to make sure that we have every potential--not every potential--but every foreign fighter. Would that be helpful to you?</t>
   </si>
   <si>
@@ -1264,9 +1186,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. I did. I flew under the radar.    Director, I was here earlier. I apologize for stepping out. I want to begin by thanking you for what you and your entire team does, because what you do on a daily basis is something that most of us don't even know about, we can't comprehend. And you keep us safe, and we're grateful for what you do. And on behalf of my family, my constituents, my State, my Nation, I'm very grateful to you and your entire department. So I wanted to tell you that.    And I admire your testimony today, and thank you for your candor. You've been here forever taking a lot of questions.    I thought maybe I'd asked you about Syrian refugees and what we're seeing. My State of Michigan is a huge hub for those of Middle Eastern descent. There is some concern about the onslaught of refugees into our country. And I apologize if you've answered this question, but I'd like to ask you, what do we know, how do we vet these refugees coming into our country? Is there a way to do it that we can rely upon?    My office does a lot of immigration work. We work with those who are attempting to immigrate legally every day, and we help them any way we can to try and get through, jump through the hoops. It's very strange that we now have groups that are coming in in the way they are that really skip all those steps in between.    So I'm just wondering if you could share with me what your experience is and what you know about the process.</t>
   </si>
   <si>
@@ -1292,9 +1211,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Director Comey, thanks for being here. It's good to see you a second day in a row.</t>
@@ -1729,11 +1645,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1753,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1781,11 +1693,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1807,11 +1717,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1831,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1859,11 +1765,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1883,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1911,11 +1813,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1935,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1963,11 +1861,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1987,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2015,11 +1909,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2039,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2067,11 +1957,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2091,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2119,11 +2005,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2143,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2171,11 +2053,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2195,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2223,11 +2101,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2247,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2275,11 +2149,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2299,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2327,11 +2197,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2351,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2379,11 +2245,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2403,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2429,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2455,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2481,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2507,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2533,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2559,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2585,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2611,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2637,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2663,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2689,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2715,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2743,11 +2581,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2767,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2793,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2819,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2845,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2871,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2899,11 +2725,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2923,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2949,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2975,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3001,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3027,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>66</v>
-      </c>
-      <c r="H52" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3055,11 +2869,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3079,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3105,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3131,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3157,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3183,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3211,11 +3013,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3235,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3261,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3287,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3313,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3339,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3365,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3391,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>82</v>
-      </c>
-      <c r="H66" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3417,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3443,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3469,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3495,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3521,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3547,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3573,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3599,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3627,11 +3397,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3651,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3677,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3703,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3729,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3755,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3781,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3807,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
-      <c r="H82" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3833,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3859,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3885,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3911,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3937,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3963,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3989,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4015,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4041,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4067,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4093,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4119,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4145,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4171,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4197,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4223,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4251,11 +3973,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4275,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4301,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4327,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4353,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4379,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4407,11 +4117,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4431,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
-      </c>
-      <c r="G106" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4457,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4483,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4509,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4535,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4561,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4587,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4613,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4639,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4665,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4691,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G116" t="s">
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>134</v>
-      </c>
-      <c r="H116" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4717,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4743,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4771,11 +4453,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4795,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4821,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4847,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4873,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4899,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4925,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4951,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4977,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5003,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5031,11 +4693,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5055,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5081,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5107,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5133,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5159,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G134" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5185,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5211,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5237,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5263,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5289,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5315,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
+        <v>148</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
         <v>159</v>
-      </c>
-      <c r="G140" t="s">
-        <v>160</v>
-      </c>
-      <c r="H140" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5341,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5367,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>159</v>
-      </c>
-      <c r="G142" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5393,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5419,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>159</v>
-      </c>
-      <c r="G144" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5445,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5471,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>159</v>
-      </c>
-      <c r="G146" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5497,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5523,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>159</v>
-      </c>
-      <c r="G148" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5549,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5575,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>159</v>
-      </c>
-      <c r="G150" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5601,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5627,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5653,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5679,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5705,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5731,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>159</v>
-      </c>
-      <c r="G156" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5757,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5783,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>159</v>
-      </c>
-      <c r="G158" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5809,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5835,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G160" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5861,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5887,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>159</v>
-      </c>
-      <c r="G162" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5913,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5939,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>159</v>
-      </c>
-      <c r="G164" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5965,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5991,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>159</v>
-      </c>
-      <c r="G166" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6017,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6045,11 +5629,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6069,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6095,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>159</v>
-      </c>
-      <c r="G170" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6121,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6147,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>159</v>
-      </c>
-      <c r="G172" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6175,11 +5749,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6199,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>204</v>
-      </c>
-      <c r="G174" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6225,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6251,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>204</v>
-      </c>
-      <c r="G176" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6277,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6303,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>204</v>
-      </c>
-      <c r="G178" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6329,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6355,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>204</v>
-      </c>
-      <c r="G180" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6381,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6407,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>204</v>
-      </c>
-      <c r="G182" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6433,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6459,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>204</v>
-      </c>
-      <c r="G184" t="s">
-        <v>205</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6487,11 +6037,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6511,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>217</v>
-      </c>
-      <c r="G186" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6537,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6563,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>217</v>
-      </c>
-      <c r="G188" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6589,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6615,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>217</v>
-      </c>
-      <c r="G190" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6641,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6667,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>217</v>
-      </c>
-      <c r="G192" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6693,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6719,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>217</v>
-      </c>
-      <c r="G194" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6745,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6771,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
-      </c>
-      <c r="G196" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6797,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6823,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
+        <v>204</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
         <v>217</v>
-      </c>
-      <c r="G198" t="s">
-        <v>218</v>
-      </c>
-      <c r="H198" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6849,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6875,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>217</v>
-      </c>
-      <c r="G200" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6901,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6927,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>217</v>
-      </c>
-      <c r="G202" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6953,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6979,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>217</v>
-      </c>
-      <c r="G204" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7005,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>236</v>
-      </c>
-      <c r="G205" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7031,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>239</v>
-      </c>
-      <c r="G206" t="s">
-        <v>240</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7057,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7083,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>239</v>
-      </c>
-      <c r="G208" t="s">
-        <v>240</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7109,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7135,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>239</v>
-      </c>
-      <c r="G210" t="s">
-        <v>240</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7161,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7187,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>236</v>
-      </c>
-      <c r="G212" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7213,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>248</v>
-      </c>
-      <c r="G213" t="s">
-        <v>249</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7239,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7265,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
-      </c>
-      <c r="G215" t="s">
-        <v>249</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7291,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7317,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>236</v>
-      </c>
-      <c r="G217" t="s">
+        <v>222</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
         <v>237</v>
-      </c>
-      <c r="H217" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7343,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>255</v>
-      </c>
-      <c r="G218" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7369,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7395,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>255</v>
-      </c>
-      <c r="G220" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7421,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7447,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>255</v>
-      </c>
-      <c r="G222" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7473,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7499,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>255</v>
-      </c>
-      <c r="G224" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7525,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7551,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>255</v>
-      </c>
-      <c r="G226" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7577,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7603,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>255</v>
-      </c>
-      <c r="G228" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7629,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7655,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>255</v>
-      </c>
-      <c r="G230" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7681,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>236</v>
-      </c>
-      <c r="G231" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7707,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>271</v>
-      </c>
-      <c r="G232" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7733,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7759,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>271</v>
-      </c>
-      <c r="G234" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7785,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7811,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>271</v>
-      </c>
-      <c r="G236" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7837,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7863,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>271</v>
-      </c>
-      <c r="G238" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7889,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7915,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>271</v>
-      </c>
-      <c r="G240" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7941,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7967,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>271</v>
-      </c>
-      <c r="G242" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7993,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8019,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>271</v>
-      </c>
-      <c r="G244" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8045,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8071,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>271</v>
-      </c>
-      <c r="G246" t="s">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8097,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>236</v>
-      </c>
-      <c r="G247" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8123,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>289</v>
-      </c>
-      <c r="G248" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8149,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8175,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>289</v>
-      </c>
-      <c r="G250" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8201,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>19</v>
-      </c>
-      <c r="G251" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8227,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>289</v>
-      </c>
-      <c r="G252" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8253,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>19</v>
-      </c>
-      <c r="G253" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8279,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>289</v>
-      </c>
-      <c r="G254" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8305,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>19</v>
-      </c>
-      <c r="G255" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8331,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>289</v>
-      </c>
-      <c r="G256" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8357,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>19</v>
-      </c>
-      <c r="G257" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8383,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>289</v>
-      </c>
-      <c r="G258" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8409,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>19</v>
-      </c>
-      <c r="G259" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8435,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>289</v>
-      </c>
-      <c r="G260" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8461,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>19</v>
-      </c>
-      <c r="G261" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8487,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>289</v>
-      </c>
-      <c r="G262" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8513,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>19</v>
-      </c>
-      <c r="G263" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8539,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>289</v>
-      </c>
-      <c r="G264" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8565,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8591,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
+        <v>270</v>
+      </c>
+      <c r="G266" t="s"/>
+      <c r="H266" t="s">
         <v>289</v>
-      </c>
-      <c r="G266" t="s">
-        <v>290</v>
-      </c>
-      <c r="H266" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8617,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
-      </c>
-      <c r="G267" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8643,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>289</v>
-      </c>
-      <c r="G268" t="s">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8669,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>236</v>
-      </c>
-      <c r="G269" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8695,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>313</v>
-      </c>
-      <c r="G270" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8721,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
-      </c>
-      <c r="G271" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8747,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>313</v>
-      </c>
-      <c r="G272" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8773,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
-      </c>
-      <c r="G273" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8799,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>313</v>
-      </c>
-      <c r="G274" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8825,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>19</v>
-      </c>
-      <c r="G275" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8851,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>313</v>
-      </c>
-      <c r="G276" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8877,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
-      </c>
-      <c r="G277" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8903,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>313</v>
-      </c>
-      <c r="G278" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8929,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8955,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>313</v>
-      </c>
-      <c r="G280" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8981,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9007,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>313</v>
-      </c>
-      <c r="G282" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9033,13 +8387,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9059,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>313</v>
-      </c>
-      <c r="G284" t="s">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9085,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>236</v>
-      </c>
-      <c r="G285" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9111,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>330</v>
-      </c>
-      <c r="G286" t="s">
-        <v>331</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9137,13 +8483,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
-      </c>
-      <c r="G287" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9163,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>330</v>
-      </c>
-      <c r="G288" t="s">
-        <v>331</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9189,13 +8531,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>19</v>
-      </c>
-      <c r="G289" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9215,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>330</v>
-      </c>
-      <c r="G290" t="s">
-        <v>331</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9241,13 +8579,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9267,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>330</v>
-      </c>
-      <c r="G292" t="s">
-        <v>331</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9293,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>236</v>
-      </c>
-      <c r="G293" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9319,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>340</v>
-      </c>
-      <c r="G294" t="s">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9345,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>19</v>
-      </c>
-      <c r="G295" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9371,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>340</v>
-      </c>
-      <c r="G296" t="s">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9397,13 +8723,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>19</v>
-      </c>
-      <c r="G297" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9423,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>340</v>
-      </c>
-      <c r="G298" t="s">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9449,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>19</v>
-      </c>
-      <c r="G299" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9475,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>340</v>
-      </c>
-      <c r="G300" t="s">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9501,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>19</v>
-      </c>
-      <c r="G301" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9527,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>340</v>
-      </c>
-      <c r="G302" t="s">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9553,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>19</v>
-      </c>
-      <c r="G303" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9579,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>340</v>
-      </c>
-      <c r="G304" t="s">
-        <v>341</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9605,13 +8915,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>236</v>
-      </c>
-      <c r="G305" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9631,13 +8939,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>354</v>
-      </c>
-      <c r="G306" t="s">
-        <v>355</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9657,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>19</v>
-      </c>
-      <c r="G307" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9683,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>354</v>
-      </c>
-      <c r="G308" t="s">
-        <v>355</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9709,13 +9011,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>19</v>
-      </c>
-      <c r="G309" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9735,13 +9035,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>354</v>
-      </c>
-      <c r="G310" t="s">
-        <v>355</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9761,13 +9059,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>19</v>
-      </c>
-      <c r="G311" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9787,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>354</v>
-      </c>
-      <c r="G312" t="s">
-        <v>355</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9813,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>19</v>
-      </c>
-      <c r="G313" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9839,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>354</v>
-      </c>
-      <c r="G314" t="s">
-        <v>355</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9865,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>19</v>
-      </c>
-      <c r="G315" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9891,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>354</v>
-      </c>
-      <c r="G316" t="s">
-        <v>355</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9917,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>236</v>
-      </c>
-      <c r="G317" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9943,13 +9227,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>81</v>
-      </c>
-      <c r="G318" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9969,13 +9251,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>236</v>
-      </c>
-      <c r="G319" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9995,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>81</v>
-      </c>
-      <c r="G320" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10021,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>236</v>
-      </c>
-      <c r="G321" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10047,13 +9323,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>372</v>
-      </c>
-      <c r="G322" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10073,13 +9347,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>19</v>
-      </c>
-      <c r="G323" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10099,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>372</v>
-      </c>
-      <c r="G324" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10125,13 +9395,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>19</v>
-      </c>
-      <c r="G325" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10151,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>372</v>
-      </c>
-      <c r="G326" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10177,13 +9443,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>19</v>
-      </c>
-      <c r="G327" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10203,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>372</v>
-      </c>
-      <c r="G328" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10229,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>19</v>
-      </c>
-      <c r="G329" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10255,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>372</v>
-      </c>
-      <c r="G330" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10281,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10307,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>372</v>
-      </c>
-      <c r="G332" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10333,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>19</v>
-      </c>
-      <c r="G333" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10359,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>372</v>
-      </c>
-      <c r="G334" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10385,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>19</v>
-      </c>
-      <c r="G335" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10411,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>372</v>
-      </c>
-      <c r="G336" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10437,13 +9683,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>19</v>
-      </c>
-      <c r="G337" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10463,13 +9707,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>372</v>
-      </c>
-      <c r="G338" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10489,13 +9731,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>19</v>
-      </c>
-      <c r="G339" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10515,13 +9755,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>372</v>
-      </c>
-      <c r="G340" t="s">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10541,13 +9779,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>236</v>
-      </c>
-      <c r="G341" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10567,13 +9803,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>394</v>
-      </c>
-      <c r="G342" t="s">
-        <v>395</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10593,13 +9827,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>19</v>
-      </c>
-      <c r="G343" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10619,13 +9851,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>394</v>
-      </c>
-      <c r="G344" t="s">
-        <v>395</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10645,13 +9875,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>19</v>
-      </c>
-      <c r="G345" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10671,13 +9899,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>394</v>
-      </c>
-      <c r="G346" t="s">
-        <v>395</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10697,13 +9923,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>236</v>
-      </c>
-      <c r="G347" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10723,13 +9947,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>19</v>
-      </c>
-      <c r="G348" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10749,13 +9971,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>394</v>
-      </c>
-      <c r="G349" t="s">
-        <v>395</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10775,13 +9995,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>236</v>
-      </c>
-      <c r="G350" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10801,13 +10019,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>394</v>
-      </c>
-      <c r="G351" t="s">
-        <v>395</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10827,13 +10043,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>19</v>
-      </c>
-      <c r="G352" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10853,13 +10067,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>394</v>
-      </c>
-      <c r="G353" t="s">
-        <v>395</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10879,13 +10091,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>236</v>
-      </c>
-      <c r="G354" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10905,13 +10115,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>19</v>
-      </c>
-      <c r="G355" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10931,13 +10139,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>236</v>
-      </c>
-      <c r="G356" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10957,13 +10163,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>19</v>
-      </c>
-      <c r="G357" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10983,13 +10187,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>236</v>
-      </c>
-      <c r="G358" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11009,13 +10211,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>19</v>
-      </c>
-      <c r="G359" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11035,13 +10235,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>236</v>
-      </c>
-      <c r="G360" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11061,13 +10259,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>415</v>
-      </c>
-      <c r="G361" t="s">
-        <v>416</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11087,13 +10283,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>19</v>
-      </c>
-      <c r="G362" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11113,13 +10307,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>415</v>
-      </c>
-      <c r="G363" t="s">
-        <v>416</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11139,13 +10331,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>19</v>
-      </c>
-      <c r="G364" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11165,13 +10355,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>415</v>
-      </c>
-      <c r="G365" t="s">
-        <v>416</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11191,13 +10379,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>19</v>
-      </c>
-      <c r="G366" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11217,13 +10403,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>415</v>
-      </c>
-      <c r="G367" t="s">
-        <v>416</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11243,13 +10427,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>236</v>
-      </c>
-      <c r="G368" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11269,13 +10451,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>425</v>
-      </c>
-      <c r="G369" t="s">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11295,13 +10475,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>19</v>
-      </c>
-      <c r="G370" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11321,13 +10499,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>425</v>
-      </c>
-      <c r="G371" t="s">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11347,13 +10523,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>19</v>
-      </c>
-      <c r="G372" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11373,13 +10547,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>425</v>
-      </c>
-      <c r="G373" t="s">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11399,13 +10571,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>19</v>
-      </c>
-      <c r="G374" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11425,13 +10595,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>425</v>
-      </c>
-      <c r="G375" t="s">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11451,13 +10619,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>19</v>
-      </c>
-      <c r="G376" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11477,13 +10643,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>425</v>
-      </c>
-      <c r="G377" t="s">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11503,13 +10667,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>19</v>
-      </c>
-      <c r="G378" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11529,13 +10691,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>425</v>
-      </c>
-      <c r="G379" t="s">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11555,13 +10715,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>19</v>
-      </c>
-      <c r="G380" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11581,13 +10739,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>236</v>
-      </c>
-      <c r="G381" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
